--- a/Team-Data/2011-12/4-3-2011-12.xlsx
+++ b/Team-Data/2011-12/4-3-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -774,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -786,10 +853,10 @@
         <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -807,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
@@ -983,10 +1050,10 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.137</v>
+        <v>0.14</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
         <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
@@ -1060,25 +1127,25 @@
         <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S4" t="n">
         <v>28.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>20.6</v>
@@ -1090,10 +1157,10 @@
         <v>6.4</v>
       </c>
       <c r="X4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
         <v>19.5</v>
@@ -1105,7 +1172,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
       <c r="AD4" t="n">
         <v>28</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1141,16 +1208,16 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP4" t="n">
         <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1168,10 +1235,10 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1314,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1418,34 +1485,34 @@
         <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
         <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.705</v>
+        <v>0.703</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
         <v>15.4</v>
@@ -1454,22 +1521,22 @@
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.5</v>
+        <v>-5.9</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
@@ -1478,10 +1545,10 @@
         <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
@@ -1499,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
@@ -1517,31 +1584,31 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
       </c>
       <c r="AX6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>28</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1702,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
         <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1863,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1878,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.377</v>
+        <v>0.365</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,28 +2037,28 @@
         <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P9" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2003,25 +2070,25 @@
         <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
         <v>19.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2039,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2051,13 +2118,13 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>17</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>37.3</v>
       </c>
       <c r="J10" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
@@ -2161,19 +2228,19 @@
         <v>19.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R10" t="n">
         <v>9.6</v>
       </c>
       <c r="S10" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
@@ -2185,10 +2252,10 @@
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA10" t="n">
         <v>17.1</v>
@@ -2200,7 +2267,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -2260,10 +2327,10 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY10" t="n">
         <v>8</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2397,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2409,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J12" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L12" t="n">
         <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.777</v>
@@ -2540,7 +2607,7 @@
         <v>18.3</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.9</v>
@@ -2555,31 +2622,31 @@
         <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2609,10 +2676,10 @@
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2633,13 +2700,13 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2782,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2794,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2812,13 +2879,13 @@
         <v>6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.63</v>
+        <v>0.623</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J14" t="n">
         <v>79.5</v>
@@ -2877,40 +2944,40 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N14" t="n">
         <v>0.317</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
         <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V14" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
@@ -2919,16 +2986,16 @@
         <v>17.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC14" t="n">
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,13 +3049,13 @@
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
         <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.577</v>
+        <v>0.569</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,19 +3117,19 @@
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.314</v>
       </c>
       <c r="O15" t="n">
         <v>17.5</v>
@@ -3071,7 +3138,7 @@
         <v>23.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
@@ -3092,16 +3159,16 @@
         <v>9.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
         <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
         <v>95.2</v>
@@ -3110,16 +3177,16 @@
         <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
@@ -3134,13 +3201,13 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3158,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,28 +3299,28 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3265,13 +3332,13 @@
         <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3280,7 +3347,7 @@
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
         <v>20.8</v>
@@ -3292,7 +3359,7 @@
         <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
@@ -3331,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3355,7 +3422,7 @@
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3534,10 +3601,10 @@
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3744,7 @@
         <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>8</v>
@@ -3686,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3710,13 +3777,13 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,7 +3845,7 @@
         <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.425</v>
@@ -3787,34 +3854,34 @@
         <v>8.1</v>
       </c>
       <c r="M19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N19" t="n">
         <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
         <v>7.6</v>
@@ -3823,31 +3890,31 @@
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3874,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ19" t="n">
         <v>11</v>
@@ -3892,19 +3959,19 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
         <v>16</v>
@@ -3913,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4044,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
@@ -4065,25 +4132,25 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
         <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J21" t="n">
         <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
         <v>22.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O21" t="n">
         <v>19.3</v>
@@ -4163,19 +4230,19 @@
         <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S21" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T21" t="n">
         <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V21" t="n">
         <v>16.6</v>
@@ -4184,43 +4251,43 @@
         <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
         <v>4.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,13 +4311,13 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT21" t="n">
         <v>12</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4268,16 +4335,16 @@
         <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>1</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>12</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.593</v>
+        <v>0.604</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="N23" t="n">
         <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P23" t="n">
         <v>23.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.648</v>
+        <v>0.645</v>
       </c>
       <c r="R23" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W23" t="n">
         <v>6.7</v>
@@ -4563,22 +4630,22 @@
         <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4599,31 +4666,31 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
@@ -4632,10 +4699,10 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.547</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4694,13 +4761,13 @@
         <v>0.448</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
@@ -4709,22 +4776,22 @@
         <v>17.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
         <v>8.300000000000001</v>
@@ -4736,34 +4803,34 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
         <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4772,13 +4839,13 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4805,16 +4872,16 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
         <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
@@ -4882,16 +4949,16 @@
         <v>19.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
@@ -4900,7 +4967,7 @@
         <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
@@ -4909,37 +4976,37 @@
         <v>14.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
@@ -4969,16 +5036,16 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
@@ -4987,13 +5054,13 @@
         <v>11</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5002,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS26" t="n">
         <v>25</v>
@@ -5175,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J27" t="n">
         <v>86.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="O27" t="n">
         <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
@@ -5267,7 +5334,7 @@
         <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
@@ -5276,28 +5343,28 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB27" t="n">
         <v>98.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5318,10 +5385,10 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5330,16 +5397,16 @@
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5348,19 +5415,19 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5369,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -5398,82 +5465,82 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.471</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
         <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
       <c r="R28" t="n">
         <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V28" t="n">
         <v>13.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AD28" t="n">
         <v>28</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5524,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5533,13 +5600,13 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
         <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.352</v>
+        <v>0.34</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5607,19 +5674,19 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
         <v>21.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
@@ -5628,19 +5695,19 @@
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
         <v>21.4</v>
       </c>
       <c r="V29" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
@@ -5655,22 +5722,22 @@
         <v>91.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5682,7 +5749,7 @@
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5697,7 +5764,7 @@
         <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6055,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6064,19 +6131,19 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT31" t="n">
         <v>20</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2011-12</t>
+          <t>2012-04-03</t>
         </is>
       </c>
     </row>
